--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T13:53:43+00:00</t>
+    <t>2025-07-28T11:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T11:47:16+00:00</t>
+    <t>2025-07-28T13:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:00:34+00:00</t>
+    <t>2025-07-29T08:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2739,7 +2739,7 @@
     <t>Ordre d’enregistrement de la naissance dans le registre d’état civil de la commune de naissance pour le mois de la naissance. Il compose les 3 derniers chiffres du NIR de l'usager avant la clé de sécurité et permet de distinguer les personnes nées au même lieu et à la même période. Il est obligatoire si le NIR n'est pas transmis.</t>
   </si>
   <si>
-    <t>element:Patient</t>
+    <t>element:Patient.birthDate</t>
   </si>
   <si>
     <t>tddui-bundle</t>
@@ -59485,7 +59485,7 @@
         <v>76</v>
       </c>
       <c r="H492" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I492" t="s" s="2">
         <v>78</v>
@@ -79586,7 +79586,7 @@
         <v>76</v>
       </c>
       <c r="H683" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I683" t="s" s="2">
         <v>78</v>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T08:16:15+00:00</t>
+    <t>2025-07-30T16:43:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:43:10+00:00</t>
+    <t>2025-07-31T07:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:16:30+00:00</t>
+    <t>2025-07-31T07:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T07:17:41+00:00</t>
+    <t>2025-07-31T10:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
+++ b/305-mapping---ajouter-un-mapping-technique-fonctionnel/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T10:47:16+00:00</t>
+    <t>2025-07-31T12:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
